--- a/planilhas/SECARTE.xlsx
+++ b/planilhas/SECARTE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C91DAD-C500-482D-9C3A-FA49A4D9389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidade XXX" sheetId="1" r:id="rId1"/>
@@ -14,28 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>UFSC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="48">
   <si>
     <t>N. Patrimônio</t>
   </si>
@@ -224,14 +219,11 @@
   <si>
     <t>SESPE</t>
   </si>
-  <si>
-    <t>DAC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,18 +644,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,24 +705,42 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="A2" s="1">
+        <v>512127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11099</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>512127</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>512128</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1">
@@ -752,7 +762,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
@@ -760,13 +770,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>512128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>390433</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>11099</v>
+        <v>8363</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -775,124 +785,122 @@
         <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>390433</v>
+      <c r="A5">
+        <v>338422</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>8363</v>
+        <v>8364</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>338422</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>338428</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
-        <v>8364</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6">
+        <v>8365</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="6">
+        <v>9000</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>338428</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>391671</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
-        <v>8365</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="1">
+        <v>8366</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
         <v>9000</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>391671</v>
+        <v>391799</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>8366</v>
+        <v>8404</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -915,14 +923,14 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>391799</v>
+      <c r="A9">
+        <v>390428</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>8404</v>
+        <v>8437</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -931,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -942,11 +950,11 @@
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>390428</v>
+        <v>390429</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -976,7 +984,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>390429</v>
+        <v>390430</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -1006,7 +1014,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>390430</v>
+        <v>390431</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1036,7 +1044,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>390431</v>
+        <v>390432</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -1066,7 +1074,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>390432</v>
+        <v>390460</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1096,13 +1104,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>390460</v>
+        <v>391800</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>8437</v>
+        <v>8439</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -1111,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1122,17 +1130,17 @@
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>391800</v>
+        <v>391669</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>8439</v>
+        <v>8445</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1156,13 +1164,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>391669</v>
+        <v>391670</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>8445</v>
+        <v>8556</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1185,29 +1193,29 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>391670</v>
+      <c r="A18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
@@ -1215,23 +1223,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+      <c r="A19">
+        <v>149581</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>8555</v>
+        <v>8560</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1246,7 +1254,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>149581</v>
+        <v>390459</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -1255,13 +1263,13 @@
         <v>8560</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1">
-        <v>10500</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1276,13 +1284,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>390459</v>
+        <v>390454</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>8560</v>
+        <v>8563</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1294,10 +1302,10 @@
         <v>30000</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
@@ -1306,28 +1314,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>390454</v>
+        <v>426866</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>8563</v>
+        <v>8567</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>13</v>
@@ -1336,28 +1344,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>426866</v>
+        <v>391803</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>8567</v>
+        <v>8354</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
@@ -1365,23 +1373,23 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>391803</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>8354</v>
+        <v>8347</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
@@ -1414,77 +1422,75 @@
         <v>30000</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8347</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>122073</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="11">
+        <v>18500</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>122073</v>
+      <c r="A28" s="7">
+        <v>122074</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <v>18500</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1499,56 +1505,58 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>122074</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" s="1"/>
+      <c r="B29" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>151896</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3645</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8">
-        <v>18500</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>151896</v>
+        <v>151895</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
-        <v>3645</v>
+        <v>11013</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -1572,49 +1580,49 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>151895</v>
+        <v>151949</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>11013</v>
+        <v>3645</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>151949</v>
+        <v>71037</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
-        <v>3645</v>
+        <v>8580</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1">
         <v>24000</v>
@@ -1623,37 +1631,37 @@
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>71037</v>
+      <c r="A34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>8580</v>
+        <v>7222</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>13</v>
@@ -1665,46 +1673,46 @@
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7222</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
+      <c r="A36" s="1">
+        <v>171023</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8572</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1">
         <v>30000</v>
@@ -1713,16 +1721,18 @@
         <v>12</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>171023</v>
+        <v>171022</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
@@ -1746,61 +1756,59 @@
         <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>171022</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="1">
-        <v>8572</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>25370</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1">
+        <v>618</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>25370</v>
+      <c r="A40" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>43</v>
@@ -1818,7 +1826,7 @@
         <v>10000</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>13</v>
@@ -1859,29 +1867,25 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1">
-        <v>618</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>13</v>
@@ -1921,13 +1925,13 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1">
-        <v>60000</v>
+        <v>7500</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>35</v>
@@ -1947,19 +1951,19 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>13</v>
@@ -1968,28 +1972,14 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -13404,18 +13394,6 @@
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
